--- a/citilink_pricelist.xlsx
+++ b/citilink_pricelist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\GolandProjects\StartupPCConfigurator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0710FB17-0200-439B-9967-9671DE6D4A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A7B278-7806-4386-96BF-0E435A1F8CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>9599</v>
+        <v>14599</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>12399</v>
+        <v>17399</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -512,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>31499</v>
+        <v>36499</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
